--- a/biology/Zoologie/Dichrometra/Dichrometra.xlsx
+++ b/biology/Zoologie/Dichrometra/Dichrometra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dichrometra sont un genre de comatules de la famille des Mariametridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un genre de Mariametridae dans lequel les trois premières pinnules sont particulièrement allongées sans être rigides, la 3e pinnule (P3) étant la plus longue et s'effilant en une pointe délicate. Les brachitaxes sont aboralement lisses, généralement en étroite apposition latérale avec des côtés plus ou moins aplatis, ou séparés. On compte 22 à 43 segments par cirrhes, les distaux aboralement carénés ou avec une épine ou un tubercule[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un genre de Mariametridae dans lequel les trois premières pinnules sont particulièrement allongées sans être rigides, la 3e pinnule (P3) étant la plus longue et s'effilant en une pointe délicate. Les brachitaxes sont aboralement lisses, généralement en étroite apposition latérale avec des côtés plus ou moins aplatis, ou séparés. On compte 22 à 43 segments par cirrhes, les distaux aboralement carénés ou avec une épine ou un tubercule.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (30 mars 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (30 mars 2021) :
 Dichrometra articulata (Müller, 1849)
 Dichrometra austini AM Clark, 1972 -- Madagascar
 Dichrometra bimaculata (Carpenter, 1881)
